--- a/questionnaires/categories/improvements.xlsx
+++ b/questionnaires/categories/improvements.xlsx
@@ -1,64 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\lkps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1C5BB-AF52-43E9-8D33-DCE7C1CF9DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B00AE-7A27-457A-B50F-DB47E293059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="2" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>title</t>
+  </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>parentvalue</t>
-  </si>
-  <si>
-    <t>attachmentname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure transport safety  </t>
-  </si>
-  <si>
-    <t>Mutated crops with increased productivity and/or climate resilience properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable animal production/livestock productivity  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food safety and quality for protection of consumers </t>
-  </si>
-  <si>
-    <t>Detection and control of major insect pests of Agricultural and Veterinary  importance</t>
-  </si>
-  <si>
-    <t>Agricultural soil, water and crop nutrition management</t>
-  </si>
-  <si>
-    <t>Imaging and treatment capacity for cancer and other NCDs, including on related safety and security considerations</t>
+    <t>Crops with increased productivity and/or climate resilience properties</t>
+  </si>
+  <si>
+    <t>Sustainable animal production/livestock productivity</t>
+  </si>
+  <si>
+    <t>Food safety and quality control</t>
+  </si>
+  <si>
+    <t>Detection and control of major insect pests of Agricultural and Veterinary importance</t>
+  </si>
+  <si>
+    <t>Sustainable, soil and water management practices for agriculture</t>
+  </si>
+  <si>
+    <t>Quality and effective diagnostic imaging and treatment in cancer and other NCDs</t>
   </si>
   <si>
     <t>Production and use of safe radioisotopes and radiopharmaceuticals for medical applications</t>
   </si>
   <si>
-    <t xml:space="preserve">Effectiveness of nutrition programmes interventions </t>
+    <t>Effective evidenced-based nutrition programming</t>
   </si>
   <si>
     <t>Detection and control of major insect pests including zoonotic diseases afecting Human health</t>
@@ -67,7 +58,7 @@
     <t>Energy planning and inform policies to meet future energy needs</t>
   </si>
   <si>
-    <t>Knowledge on application and development of SMRs</t>
+    <t>Knowledge on application and development of Small Modular Reactors (SMRs)</t>
   </si>
   <si>
     <t>Safe introduction, operation, and lifetime management of nuclear power plant</t>
@@ -79,71 +70,55 @@
     <t>Safe and effective utilization, operation, and maintenance of research reactors</t>
   </si>
   <si>
-    <t>Reliabile and comparable measurement of results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>Sustainable, land and water management practices for agriculture and freshwater resources</t>
-  </si>
-  <si>
-    <t>Monitoring and assessment of pollution in land, air, coastal ecosystems, and the oceans, including from plastics</t>
-  </si>
-  <si>
-    <t>Establish governmental and regulatory infrastructure to ensure nuclear  and radiation safety</t>
-  </si>
-  <si>
-    <t>Radiation protection o fworkers, patients, the public and the environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure nuclear installation safety </t>
-  </si>
-  <si>
-    <t>Establish emergency preparedness &amp; response</t>
-  </si>
-  <si>
-    <t>Radioactive waste management</t>
+    <t>Reliable and comparable measurement of results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>Sustainable water resources management</t>
+  </si>
+  <si>
+    <t>Effective assessment of pollution in land, air, coastal ecosystems, and the oceans, including from plastics</t>
+  </si>
+  <si>
+    <t>Governmental and regulatory infrastructure to ensure nuclear installation and radiation safety</t>
+  </si>
+  <si>
+    <t>Radiation proection of workers, patients, public and environment.</t>
+  </si>
+  <si>
+    <t>Nuclear installations and fuel cycle facilities safety</t>
+  </si>
+  <si>
+    <t>Safe use, storage and transport, of nuclear and radioactive materials.</t>
+  </si>
+  <si>
+    <t>Effective emergency preparedness &amp; response</t>
+  </si>
+  <si>
+    <t>Effective radioactive waste management, decommissioning and remediation of contaminated sites.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,31 +126,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -239,10 +195,6 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -268,15 +220,12 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -302,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,213 +428,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="B11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="102.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="141" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="B13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="B14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="166.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="B15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="141" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="B21">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="B22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="153.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="B23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="141" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="141" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="217.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="153.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="179.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="141" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="39" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/questionnaires/categories/improvements.xlsx
+++ b/questionnaires/categories/improvements.xlsx
@@ -1,107 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B00AE-7A27-457A-B50F-DB47E293059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>Crops with increased productivity and/or climate resilience properties</t>
-  </si>
-  <si>
-    <t>Sustainable animal production/livestock productivity</t>
-  </si>
-  <si>
-    <t>Food safety and quality control</t>
-  </si>
-  <si>
-    <t>Detection and control of major insect pests of Agricultural and Veterinary importance</t>
-  </si>
-  <si>
-    <t>Sustainable, soil and water management practices for agriculture</t>
-  </si>
-  <si>
-    <t>Quality and effective diagnostic imaging and treatment in cancer and other NCDs</t>
-  </si>
-  <si>
-    <t>Production and use of safe radioisotopes and radiopharmaceuticals for medical applications</t>
-  </si>
-  <si>
-    <t>Effective evidenced-based nutrition programming</t>
-  </si>
-  <si>
-    <t>Detection and control of major insect pests including zoonotic diseases afecting Human health</t>
-  </si>
-  <si>
-    <t>Energy planning and inform policies to meet future energy needs</t>
-  </si>
-  <si>
-    <t>Knowledge on application and development of Small Modular Reactors (SMRs)</t>
-  </si>
-  <si>
-    <t>Safe introduction, operation, and lifetime management of nuclear power plant</t>
-  </si>
-  <si>
-    <t>Efficiency, productivity, quality, and safety across industries, using nuclear technologies</t>
-  </si>
-  <si>
-    <t>Safe and effective utilization, operation, and maintenance of research reactors</t>
-  </si>
-  <si>
-    <t>Reliable and comparable measurement of results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>Sustainable water resources management</t>
-  </si>
-  <si>
-    <t>Effective assessment of pollution in land, air, coastal ecosystems, and the oceans, including from plastics</t>
-  </si>
-  <si>
-    <t>Governmental and regulatory infrastructure to ensure nuclear installation and radiation safety</t>
-  </si>
-  <si>
-    <t>Radiation proection of workers, patients, public and environment.</t>
-  </si>
-  <si>
-    <t>Nuclear installations and fuel cycle facilities safety</t>
-  </si>
-  <si>
-    <t>Safe use, storage and transport, of nuclear and radioactive materials.</t>
-  </si>
-  <si>
-    <t>Effective emergency preparedness &amp; response</t>
-  </si>
-  <si>
-    <t>Effective radioactive waste management, decommissioning and remediation of contaminated sites.</t>
+    <t xml:space="preserve">title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crops with increased productivity and/or climate resilience properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainable animal production/livestock productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food safety and quality control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detection and control of major insect pests of Agricultural and Veterinary importance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainable, soil and water management practices for agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality and effective diagnostic imaging and treatment in cancer and other NCDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production and use of safe radioisotopes and radiopharmaceuticals for medical applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective evidenced-based nutrition programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detection and control of major insect pests including zoonotic diseases afecting Human health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy planning and inform policies to meet future energy needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge on application and development of Small Modular Reactors (SMRs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe introduction, operation, and lifetime management of nuclear power plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency, productivity, quality, and safety across industries, using nuclear technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe and effective utilization, operation, and maintenance of research reactors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliable and comparable measurement of results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainable water resources management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective assessment of pollution in land, air, coastal ecosystems, and the oceans, including from plastics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Governmental and regulatory infrastructure to ensure nuclear installation and radiation safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radiation proection of workers, patients, public and environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear installations and fuel cycle facilities safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe use, storage and transport, of nuclear and radioactive materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective emergency preparedness &amp; response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective radioactive waste management, decommissioning and remediation of contaminated sites.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -137,15 +130,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,192 +426,196 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>66</v>
       </c>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/questionnaires/categories/improvements.xlsx
+++ b/questionnaires/categories/improvements.xlsx
@@ -1,100 +1,176 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC08111D-0347-471C-8345-ED539A6342E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="29070" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Categories" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crops with increased productivity and/or climate resilience properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable animal production/livestock productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food safety and quality control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detection and control of major insect pests of Agricultural and Veterinary importance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable, soil and water management practices for agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality and effective diagnostic imaging and treatment in cancer and other NCDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production and use of safe radioisotopes and radiopharmaceuticals for medical applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective evidenced-based nutrition programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detection and control of major insect pests including zoonotic diseases afecting Human health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy planning and inform policies to meet future energy needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knowledge on application and development of Small Modular Reactors (SMRs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe introduction, operation, and lifetime management of nuclear power plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency, productivity, quality, and safety across industries, using nuclear technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe and effective utilization, operation, and maintenance of research reactors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliable and comparable measurement of results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainable water resources management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective assessment of pollution in land, air, coastal ecosystems, and the oceans, including from plastics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Governmental and regulatory infrastructure to ensure nuclear installation and radiation safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radiation proection of workers, patients, public and environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear installations and fuel cycle facilities safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe use, storage and transport, of nuclear and radioactive materials.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective emergency preparedness &amp; response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effective radioactive waste management, decommissioning and remediation of contaminated sites.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Crops with increased productivity and/or climate resilience properties</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Sustainable animal production/livestock productivity</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Food safety and quality control</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Detection and control of major insect pests of Agricultural and Veterinary importance</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Sustainable, soil and water management practices for agriculture</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Quality and effective diagnostic imaging and treatment in cancer and other NCDs</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Production and use of safe radioisotopes and radiopharmaceuticals for medical applications</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Effective evidenced-based nutrition programming</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Detection and control of major insect pests including zoonotic diseases affecting Human health</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Energy planning and inform policies to meet future energy needs</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Knowledge on application and development of Small Modular Reactors (SMRs)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Safe introduction, operation, and lifetime management of nuclear power plant</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Efficiency, productivity, quality, and safety across industries, using nuclear technologies</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Safe and effective utilization, operation, and maintenance of research reactors</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Reliable and comparable measurement of results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Sustainable water resources management</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Effective assessment of pollution in land, air, coastal ecosystems, and the oceans, including from plastics</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Governmental and regulatory infrastructure to ensure nuclear and radiation safety</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Radiation protection of workers, patients, public and environment.</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Nuclear installations and fuel cycle facilities safety</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Safe use, storage and transport, of nuclear and radioactive materials.</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Effective emergency preparedness &amp; response</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Effective radioactive waste management, decommissioning and remediation of contaminated sites.</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -130,6 +206,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,14 +496,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="117.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,196 +514,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/questionnaires/categories/improvements.xlsx
+++ b/questionnaires/categories/improvements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC08111D-0347-471C-8345-ED539A6342E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEEAD8D-3D54-4581-BDD3-5FB1C72AD43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="29070" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="2310" windowWidth="21600" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>title</t>
   </si>
@@ -31,139 +31,67 @@
     <t>Crops with increased productivity and/or climate resilience properties</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Sustainable animal production/livestock productivity</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Food safety and quality control</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Detection and control of major insect pests of Agricultural and Veterinary importance</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Sustainable, soil and water management practices for agriculture</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Quality and effective diagnostic imaging and treatment in cancer and other NCDs</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>Production and use of safe radioisotopes and radiopharmaceuticals for medical applications</t>
   </si>
   <si>
-    <t>22</t>
+    <t>Detection and control of major insect pests including zoonotic diseases affecting Human health</t>
   </si>
   <si>
     <t>Effective evidenced-based nutrition programming</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Detection and control of major insect pests including zoonotic diseases affecting Human health</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Energy planning and inform policies to meet future energy needs</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Knowledge on application and development of Small Modular Reactors (SMRs)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Safe introduction, operation, and lifetime management of nuclear power plant</t>
-  </si>
-  <si>
-    <t>33</t>
+    <t>Safe and sustainable introduction, operation, and lifetime management of nuclear power plant/ nuclear fuel cycle</t>
   </si>
   <si>
     <t>Efficiency, productivity, quality, and safety across industries, using nuclear technologies</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>Safe and effective utilization, operation, and maintenance of research reactors</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Reliable and comparable measurement of results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Sustainable water resources management</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>Effective assessment of pollution in land, air, coastal ecosystems, and the oceans, including from plastics</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>Governmental and regulatory infrastructure to ensure nuclear and radiation safety</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>Radiation protection of workers, patients, public and environment.</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>Nuclear installations and fuel cycle facilities safety</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>Safe use, storage and transport, of nuclear and radioactive materials.</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>Effective emergency preparedness &amp; response</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>Effective radioactive waste management, decommissioning and remediation of contaminated sites.</t>
-  </si>
-  <si>
-    <t>66</t>
   </si>
 </sst>
 </file>
@@ -497,14 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="117.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -518,184 +443,176 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
